--- a/examples/craigslist/artifact/script/SearchCraigslist.xlsx
+++ b/examples/craigslist/artifact/script/SearchCraigslist.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/craigslist/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B850E-4C02-7345-BE89-BABFA57F7948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E06B850E-4C02-7345-BE89-BABFA57F7948}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-21140" windowWidth="25600" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="660">
   <si>
     <t>description</t>
   </si>
@@ -2058,12 +2058,22 @@
   <si>
     <t>ProceedIf( ${os.name} contain Win )</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2170,8 +2180,109 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2202,8 +2313,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2278,229 +2542,603 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="74">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="5" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2564,7 +3202,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2589,10 +3227,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2627,7 +3265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2662,7 +3300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2756,21 +3394,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2787,7 +3425,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2839,26 +3477,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2953,7 +3591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -3048,7 +3686,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>448</v>
       </c>
@@ -3134,7 +3772,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -3217,7 +3855,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>540</v>
       </c>
@@ -3291,7 +3929,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3313,6 +3951,9 @@
       <c r="I6" t="s">
         <v>441</v>
       </c>
+      <c r="J6" t="s">
+        <v>657</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
@@ -3359,7 +4000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3421,7 +4062,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +4118,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3524,7 +4165,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3565,7 +4206,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3603,7 +4244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3641,7 +4282,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3676,7 +4317,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3711,7 +4352,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>500</v>
       </c>
@@ -3743,7 +4384,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -3775,7 +4416,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3801,7 +4442,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3824,12 +4465,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -3844,12 +4485,12 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -3864,12 +4505,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -3884,12 +4525,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -3904,12 +4545,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>530</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -3924,12 +4565,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -3944,12 +4585,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -3964,12 +4605,12 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -3984,12 +4625,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>442</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4004,12 +4645,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4021,12 +4662,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>461</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4038,12 +4679,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4055,12 +4696,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4069,9 +4710,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="F32" t="s">
-        <v>409</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -4080,9 +4721,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -4091,9 +4732,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>502</v>
@@ -4102,9 +4743,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -4113,9 +4754,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -4124,9 +4765,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -4135,9 +4776,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -4146,9 +4787,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -4157,10 +4798,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
+    <row r="40">
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -4168,7 +4806,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="H41" t="s">
         <v>78</v>
       </c>
@@ -4176,7 +4814,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="H42" t="s">
         <v>210</v>
       </c>
@@ -4184,7 +4822,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="H43" t="s">
         <v>531</v>
       </c>
@@ -4192,7 +4830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="H44" t="s">
         <v>286</v>
       </c>
@@ -4200,7 +4838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
@@ -4208,7 +4846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
@@ -4216,7 +4854,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
@@ -4224,7 +4862,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
@@ -4232,7 +4870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
@@ -4240,7 +4878,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
@@ -4248,7 +4886,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
@@ -4256,7 +4894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="H52" t="s">
         <v>362</v>
       </c>
@@ -4264,7 +4902,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
@@ -4272,7 +4910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="H54" t="s">
         <v>350</v>
       </c>
@@ -4280,7 +4918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
@@ -4288,7 +4926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
@@ -4296,7 +4934,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
@@ -4304,7 +4942,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
@@ -4312,7 +4950,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="H59" t="s">
         <v>532</v>
       </c>
@@ -4320,7 +4958,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
@@ -4328,7 +4966,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
@@ -4336,7 +4974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
@@ -4344,7 +4982,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
@@ -4352,7 +4990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
@@ -4360,7 +4998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
@@ -4368,7 +5006,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="H66" t="s">
         <v>363</v>
       </c>
@@ -4376,7 +5014,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="H67" t="s">
         <v>364</v>
       </c>
@@ -4384,7 +5022,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
@@ -4392,7 +5030,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
@@ -4400,7 +5038,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
@@ -4408,7 +5046,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="H71" t="s">
         <v>518</v>
       </c>
@@ -4416,7 +5054,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
@@ -4424,7 +5062,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="H73" t="s">
         <v>403</v>
       </c>
@@ -4432,7 +5070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
@@ -4440,7 +5078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="H75" t="s">
         <v>404</v>
       </c>
@@ -4448,7 +5086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
@@ -4456,7 +5094,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="H77" t="s">
         <v>503</v>
       </c>
@@ -4464,7 +5102,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
@@ -4472,7 +5110,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
@@ -4480,7 +5118,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
@@ -4488,7 +5126,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
@@ -4496,7 +5134,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="H82" t="s">
         <v>422</v>
       </c>
@@ -4504,7 +5142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
@@ -4512,7 +5150,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
@@ -4520,7 +5158,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
@@ -4528,7 +5166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
@@ -4536,7 +5174,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
@@ -4544,7 +5182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="H88" t="s">
         <v>520</v>
       </c>
@@ -4552,7 +5190,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
@@ -4560,7 +5198,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
@@ -4568,7 +5206,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
@@ -4576,7 +5214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
@@ -4584,7 +5222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
@@ -4592,7 +5230,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
@@ -4600,7 +5238,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
@@ -4608,7 +5246,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
@@ -4616,7 +5254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
@@ -4624,7 +5262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
@@ -4632,223 +5270,233 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="Z99" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Z100" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Z101" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z128" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z129" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z130" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z131" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z132" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z133" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z134" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z135" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A28" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="23.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.1640625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="40.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="41.0" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="10" width="23.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="45.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -4879,7 +5527,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
@@ -4900,7 +5548,7 @@
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4917,7 +5565,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -4962,7 +5610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>550</v>
       </c>
@@ -4987,7 +5635,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>552</v>
@@ -5014,7 +5662,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>553</v>
@@ -5041,7 +5689,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>561</v>
@@ -5070,7 +5718,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>562</v>
       </c>
@@ -5099,7 +5747,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>566</v>
@@ -5124,7 +5772,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -5147,7 +5795,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5172,7 +5820,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="43" t="s">
         <v>637</v>
@@ -5199,7 +5847,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="44" t="s">
         <v>568</v>
@@ -5224,7 +5872,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="45" t="s">
         <v>570</v>
@@ -5249,7 +5897,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="44"/>
       <c r="C16" s="13" t="s">
@@ -5274,7 +5922,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
@@ -5299,7 +5947,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="46" t="s">
         <v>583</v>
@@ -5326,7 +5974,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
@@ -5351,7 +5999,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
@@ -5376,7 +6024,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="41"/>
       <c r="C21" s="13" t="s">
@@ -5399,7 +6047,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="42" t="s">
         <v>584</v>
@@ -5426,7 +6074,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>585</v>
@@ -5453,7 +6101,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>596</v>
@@ -5480,7 +6128,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="47" t="s">
         <v>597</v>
@@ -5507,7 +6155,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="48"/>
       <c r="C26" s="13" t="s">
@@ -5532,7 +6180,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="49"/>
       <c r="C27" s="13" t="s">
@@ -5557,7 +6205,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5" t="s">
         <v>598</v>
@@ -5582,7 +6230,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>601</v>
       </c>
@@ -5611,7 +6259,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="29" t="s">
         <v>606</v>
@@ -5638,7 +6286,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
         <v>607</v>
@@ -5665,7 +6313,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13" t="s">
@@ -5690,7 +6338,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5" t="s">
         <v>640</v>
@@ -5719,7 +6367,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="30" t="s">
         <v>609</v>
@@ -5746,7 +6394,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="31"/>
       <c r="C35" s="13" t="s">
@@ -5771,7 +6419,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="32" t="s">
         <v>612</v>
@@ -5796,7 +6444,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="37" t="s">
         <v>634</v>
@@ -5825,7 +6473,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="35" t="s">
         <v>615</v>
@@ -5852,7 +6500,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="35" t="s">
         <v>616</v>
@@ -5881,7 +6529,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="35" t="s">
         <v>622</v>
@@ -5910,7 +6558,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="36" t="s">
         <v>627</v>
@@ -5937,7 +6585,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="36" t="s">
         <v>633</v>
@@ -5964,7 +6612,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="34" t="s">
         <v>639</v>
@@ -5993,7 +6641,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="33" t="s">
         <v>642</v>
@@ -6022,7 +6670,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="33"/>
       <c r="C45" s="13" t="s">
@@ -6047,7 +6695,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5" t="s">
         <v>648</v>
@@ -6076,7 +6724,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>652</v>
       </c>
@@ -6105,7 +6753,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13" t="s">
@@ -6130,7 +6778,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6147,7 +6795,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6164,7 +6812,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -6181,7 +6829,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -6198,7 +6846,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -6215,7 +6863,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -6232,7 +6880,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -6249,7 +6897,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -6266,7 +6914,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -6283,7 +6931,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -6300,7 +6948,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -6317,7 +6965,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -6334,7 +6982,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -6351,7 +6999,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -6368,7 +7016,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -6385,7 +7033,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -6402,7 +7050,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -6419,7 +7067,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -6436,7 +7084,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -6453,7 +7101,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -6470,7 +7118,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -6487,7 +7135,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -6504,7 +7152,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -6521,7 +7169,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -6538,7 +7186,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -6555,7 +7203,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -6572,7 +7220,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -6589,7 +7237,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -6606,7 +7254,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6623,7 +7271,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6640,7 +7288,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6657,7 +7305,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6674,7 +7322,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6691,7 +7339,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6708,7 +7356,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6725,7 +7373,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6742,7 +7390,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6759,7 +7407,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6776,7 +7424,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6793,7 +7441,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6810,7 +7458,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6827,7 +7475,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6844,7 +7492,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6861,7 +7509,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6878,7 +7526,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6895,7 +7543,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6912,7 +7560,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6929,7 +7577,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6946,7 +7594,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6963,7 +7611,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6980,7 +7628,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6997,7 +7645,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -7014,7 +7662,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -7031,7 +7679,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -7048,7 +7696,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -7065,7 +7713,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -7082,7 +7730,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -7099,7 +7747,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -7116,7 +7764,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -7133,7 +7781,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -7150,7 +7798,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -7167,7 +7815,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -7184,7 +7832,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -7201,7 +7849,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -7218,7 +7866,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -7235,7 +7883,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -7252,7 +7900,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -7269,7 +7917,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -7286,7 +7934,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -7303,7 +7951,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -7320,7 +7968,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -7337,7 +7985,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -7354,7 +8002,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -7371,7 +8019,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -7388,7 +8036,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -7405,7 +8053,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -7422,7 +8070,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -7439,7 +8087,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -7456,7 +8104,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -7473,7 +8121,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -7490,7 +8138,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -7507,7 +8155,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -7524,7 +8172,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -7541,7 +8189,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -7558,7 +8206,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -7575,7 +8223,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -7592,7 +8240,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -7609,7 +8257,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -7626,7 +8274,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -7643,7 +8291,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -7660,7 +8308,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -7677,7 +8325,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7694,7 +8342,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7711,7 +8359,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7728,7 +8376,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7745,7 +8393,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7762,7 +8410,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7779,7 +8427,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7796,7 +8444,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7813,7 +8461,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7830,7 +8478,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7847,7 +8495,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7864,7 +8512,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7881,7 +8529,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7898,7 +8546,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7915,7 +8563,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7932,7 +8580,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7949,7 +8597,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7966,7 +8614,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7983,7 +8631,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -8000,7 +8648,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -8017,7 +8665,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -8034,7 +8682,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -8051,7 +8699,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -8068,7 +8716,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -8085,7 +8733,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -8102,7 +8750,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -8119,7 +8767,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -8136,7 +8784,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -8153,7 +8801,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -8170,7 +8818,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -8187,7 +8835,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -8204,7 +8852,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -8221,7 +8869,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -8238,7 +8886,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -8255,7 +8903,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -8272,7 +8920,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -8289,7 +8937,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -8306,7 +8954,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -8323,7 +8971,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -8340,7 +8988,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -8357,7 +9005,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -8374,7 +9022,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -8391,7 +9039,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -8408,7 +9056,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -8425,7 +9073,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -8442,7 +9090,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -8459,7 +9107,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -8476,7 +9124,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -8493,7 +9141,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -8510,7 +9158,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -8527,7 +9175,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -8544,7 +9192,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -8561,7 +9209,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -8578,7 +9226,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -8595,7 +9243,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -8612,7 +9260,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -8629,7 +9277,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -8646,7 +9294,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -8663,7 +9311,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -8680,7 +9328,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8697,7 +9345,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8714,7 +9362,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8731,7 +9379,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8748,7 +9396,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8765,7 +9413,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8782,7 +9430,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8799,7 +9447,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8816,7 +9464,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8833,7 +9481,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8850,7 +9498,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8867,7 +9515,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8884,7 +9532,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8901,7 +9549,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8918,7 +9566,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8935,7 +9583,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8952,7 +9600,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8969,7 +9617,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8986,7 +9634,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -9003,7 +9651,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -9020,7 +9668,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -9037,7 +9685,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -9054,7 +9702,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -9071,7 +9719,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -9088,7 +9736,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -9105,7 +9753,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -9122,7 +9770,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -9139,7 +9787,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -9156,7 +9804,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -9173,7 +9821,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -9190,7 +9838,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -9207,7 +9855,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -9224,7 +9872,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -9241,7 +9889,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -9258,7 +9906,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -9275,7 +9923,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -9292,7 +9940,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -9309,7 +9957,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -9326,7 +9974,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -9343,7 +9991,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -9360,7 +10008,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -9377,7 +10025,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -9394,7 +10042,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -9411,7 +10059,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -9428,7 +10076,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -9445,7 +10093,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -9462,7 +10110,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -9479,7 +10127,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -9496,7 +10144,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -9513,7 +10161,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -9530,7 +10178,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -9547,7 +10195,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -9564,7 +10212,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -9581,7 +10229,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -9598,7 +10246,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -9615,7 +10263,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -9632,7 +10280,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -9649,7 +10297,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -9666,7 +10314,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -9683,7 +10331,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9700,7 +10348,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9717,7 +10365,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9734,7 +10382,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9751,7 +10399,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9768,7 +10416,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9785,7 +10433,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9802,7 +10450,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9819,7 +10467,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9836,7 +10484,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9853,7 +10501,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9870,7 +10518,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9887,7 +10535,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9904,7 +10552,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9921,7 +10569,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9938,7 +10586,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9955,7 +10603,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9972,7 +10620,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9989,7 +10637,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -10006,7 +10654,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -10023,7 +10671,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -10040,7 +10688,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -10057,7 +10705,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -10074,7 +10722,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -10091,7 +10739,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -10108,7 +10756,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -10125,7 +10773,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -10142,7 +10790,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -10159,7 +10807,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -10176,7 +10824,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -10193,7 +10841,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -10210,7 +10858,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -10227,7 +10875,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -10244,7 +10892,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -10261,7 +10909,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -10278,7 +10926,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -10295,7 +10943,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -10312,7 +10960,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -10329,7 +10977,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -10346,7 +10994,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -10363,7 +11011,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -10380,7 +11028,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -10397,7 +11045,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -10414,7 +11062,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -10431,7 +11079,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -10449,7 +11097,7 @@
       <c r="O302" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -10457,36 +11105,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N303:N1048576 N3:N102">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:N302">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C302" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C302" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D302" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D302" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/examples/craigslist/artifact/script/SearchCraigslist.xlsx
+++ b/examples/craigslist/artifact/script/SearchCraigslist.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{E06B850E-4C02-7345-BE89-BABFA57F7948}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="660">
   <si>
     <t>description</t>
   </si>
@@ -2073,7 +2073,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2281,8 +2281,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2466,8 +2567,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2868,6 +3122,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2875,7 +3455,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3085,52 +3665,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="14" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="17" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="20" fontId="21" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="23" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="14" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="26" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="26" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="32" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="53" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="53" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3487,7 +4115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/examples/craigslist/artifact/script/SearchCraigslist.xlsx
+++ b/examples/craigslist/artifact/script/SearchCraigslist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/craigslist/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E06B850E-4C02-7345-BE89-BABFA57F7948}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{324483FF-ADA8-0847-9091-9F0CA3748B29}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="70400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14920" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="659">
   <si>
     <t>description</t>
   </si>
@@ -1711,9 +1711,6 @@
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
   <si>
-    <t>clearVariables(variables)</t>
-  </si>
-  <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
   <si>
@@ -1733,9 +1730,6 @@
   </si>
   <si>
     <t>${logo.loc}</t>
-  </si>
-  <si>
-    <t>${logo.text}</t>
   </si>
   <si>
     <t>${region.loc}</t>
@@ -2067,13 +2061,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>${logo.text}asdfasdg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2281,109 +2278,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="60">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2567,161 +2463,8 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="70">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3122,332 +2865,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDC3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDC3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDC3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDC3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDC3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDC3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3455,7 +2872,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3665,100 +3082,52 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="15" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="14" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="17" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="20" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="23" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="14" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="26" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="26" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="27" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="28" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="29" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="32" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="53" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="53" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4115,7 +3484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4429,7 +3798,7 @@
         <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -4465,7 +3834,7 @@
         <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -4580,7 +3949,7 @@
         <v>441</v>
       </c>
       <c r="J6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K6" t="s">
         <v>345</v>
@@ -5900,12 +5269,12 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="101">
@@ -6103,7 +5472,7 @@
   <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A28" ySplit="4"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6240,7 +5609,7 @@
     </row>
     <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -6250,7 +5619,7 @@
         <v>195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6266,7 +5635,7 @@
     <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>54</v>
@@ -6275,10 +5644,10 @@
         <v>118</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>555</v>
+        <v>658</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6293,7 +5662,7 @@
     <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>54</v>
@@ -6302,10 +5671,10 @@
         <v>118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6320,7 +5689,7 @@
     <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>54</v>
@@ -6329,13 +5698,13 @@
         <v>97</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -6348,10 +5717,10 @@
     </row>
     <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>54</v>
@@ -6360,10 +5729,10 @@
         <v>160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6378,7 +5747,7 @@
     <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>54</v>
@@ -6387,7 +5756,7 @@
         <v>165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6410,7 +5779,7 @@
         <v>165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6433,10 +5802,10 @@
         <v>118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6451,7 +5820,7 @@
     <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="43" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -6460,14 +5829,14 @@
         <v>409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="15"/>
@@ -6478,7 +5847,7 @@
     <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="44" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>54</v>
@@ -6487,7 +5856,7 @@
         <v>437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6503,7 +5872,7 @@
     <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="45" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>54</v>
@@ -6512,7 +5881,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -6535,10 +5904,10 @@
         <v>63</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6560,10 +5929,10 @@
         <v>63</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6578,7 +5947,7 @@
     <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="46" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -6587,10 +5956,10 @@
         <v>318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6612,10 +5981,10 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6637,10 +6006,10 @@
         <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6662,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6678,7 +6047,7 @@
     <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>52</v>
@@ -6687,10 +6056,10 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6705,7 +6074,7 @@
     <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>54</v>
@@ -6714,14 +6083,14 @@
         <v>77</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="15"/>
@@ -6732,7 +6101,7 @@
     <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>54</v>
@@ -6741,14 +6110,14 @@
         <v>77</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="39" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="15"/>
@@ -6759,7 +6128,7 @@
     <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="47" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>13</v>
@@ -6768,14 +6137,14 @@
         <v>409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="15"/>
@@ -6793,10 +6162,10 @@
         <v>159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6818,10 +6187,10 @@
         <v>159</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -6836,7 +6205,7 @@
     <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>54</v>
@@ -6845,7 +6214,7 @@
         <v>77</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -6860,10 +6229,10 @@
     </row>
     <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>54</v>
@@ -6872,10 +6241,10 @@
         <v>202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -6890,7 +6259,7 @@
     <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>13</v>
@@ -6899,14 +6268,14 @@
         <v>70</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="22" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="15"/>
@@ -6917,7 +6286,7 @@
     <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>13</v>
@@ -6926,10 +6295,10 @@
         <v>63</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -6951,10 +6320,10 @@
         <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -6969,7 +6338,7 @@
     <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>14</v>
@@ -6978,13 +6347,13 @@
         <v>85</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -6998,7 +6367,7 @@
     <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>13</v>
@@ -7007,10 +6376,10 @@
         <v>318</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -7032,10 +6401,10 @@
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -7050,7 +6419,7 @@
     <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>13</v>
@@ -7059,7 +6428,7 @@
         <v>408</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -7075,7 +6444,7 @@
     <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="37" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>54</v>
@@ -7084,13 +6453,13 @@
         <v>197</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -7104,7 +6473,7 @@
     <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="35" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>54</v>
@@ -7113,10 +6482,10 @@
         <v>202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -7131,7 +6500,7 @@
     <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>54</v>
@@ -7140,13 +6509,13 @@
         <v>197</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -7160,7 +6529,7 @@
     <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>54</v>
@@ -7169,13 +6538,13 @@
         <v>197</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -7189,7 +6558,7 @@
     <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>54</v>
@@ -7198,10 +6567,10 @@
         <v>202</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -7216,7 +6585,7 @@
     <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>54</v>
@@ -7225,10 +6594,10 @@
         <v>202</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -7243,7 +6612,7 @@
     <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="34" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>13</v>
@@ -7252,16 +6621,16 @@
         <v>63</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="15"/>
@@ -7272,7 +6641,7 @@
     <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>14</v>
@@ -7281,13 +6650,13 @@
         <v>85</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>646</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -7308,10 +6677,10 @@
         <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -7326,7 +6695,7 @@
     <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>14</v>
@@ -7335,13 +6704,13 @@
         <v>85</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -7354,10 +6723,10 @@
     </row>
     <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>23</v>
@@ -7366,14 +6735,14 @@
         <v>476</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="15"/>
@@ -7391,14 +6760,14 @@
         <v>476</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="15"/>

--- a/examples/craigslist/artifact/script/SearchCraigslist.xlsx
+++ b/examples/craigslist/artifact/script/SearchCraigslist.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/craigslist/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/tutorials/examples/craigslist/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{324483FF-ADA8-0847-9091-9F0CA3748B29}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893AA383-9B19-7043-8ACF-B8719AA84CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="70400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14920" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="-14160" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
-    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
+    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="659">
   <si>
     <t>description</t>
   </si>
@@ -2062,15 +2062,14 @@
     <t>saveSelectedValue(var,locator)</t>
   </si>
   <si>
-    <t>${logo.text}asdfasdg</t>
+    <t>${logo.text}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2177,109 +2176,8 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2310,161 +2208,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2539,603 +2284,229 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDC3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDC3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDC3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDC3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDC3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDC3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDC3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="5" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="4" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3199,7 +2570,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3224,10 +2595,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3262,7 +2633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3297,7 +2668,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3391,21 +2762,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3422,7 +2793,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3474,26 +2845,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +2959,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -3683,7 +3054,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>448</v>
       </c>
@@ -3769,7 +3140,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -3852,7 +3223,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>540</v>
       </c>
@@ -3926,7 +3297,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3997,7 +3368,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4059,7 +3430,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4115,7 +3486,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4162,7 +3533,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4203,7 +3574,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -4241,7 +3612,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4279,7 +3650,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -4314,7 +3685,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4349,7 +3720,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>500</v>
       </c>
@@ -4381,7 +3752,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -4413,7 +3784,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4439,7 +3810,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4462,7 +3833,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -4482,7 +3853,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4502,7 +3873,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>389</v>
       </c>
@@ -4522,7 +3893,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>405</v>
       </c>
@@ -4542,7 +3913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -4562,7 +3933,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>351</v>
       </c>
@@ -4582,7 +3953,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>390</v>
       </c>
@@ -4602,7 +3973,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4622,7 +3993,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -4642,7 +4013,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4659,7 +4030,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4676,7 +4047,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>407</v>
       </c>
@@ -4693,7 +4064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>225</v>
       </c>
@@ -4707,7 +4078,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>64</v>
       </c>
@@ -4718,7 +4089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
         <v>65</v>
       </c>
@@ -4729,7 +4100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>66</v>
       </c>
@@ -4740,7 +4111,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
         <v>67</v>
       </c>
@@ -4751,7 +4122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
         <v>68</v>
       </c>
@@ -4762,7 +4133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>69</v>
       </c>
@@ -4773,7 +4144,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>70</v>
       </c>
@@ -4784,7 +4155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>71</v>
       </c>
@@ -4795,7 +4166,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -4803,7 +4174,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
         <v>78</v>
       </c>
@@ -4811,7 +4182,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
         <v>210</v>
       </c>
@@ -4819,7 +4190,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>531</v>
       </c>
@@ -4827,7 +4198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>286</v>
       </c>
@@ -4835,7 +4206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
         <v>297</v>
       </c>
@@ -4843,7 +4214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>298</v>
       </c>
@@ -4851,7 +4222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
         <v>340</v>
       </c>
@@ -4859,7 +4230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
         <v>339</v>
       </c>
@@ -4867,7 +4238,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>209</v>
       </c>
@@ -4875,7 +4246,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>317</v>
       </c>
@@ -4883,7 +4254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
         <v>336</v>
       </c>
@@ -4891,7 +4262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
         <v>362</v>
       </c>
@@ -4899,7 +4270,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H53" t="s">
         <v>299</v>
       </c>
@@ -4907,7 +4278,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H54" t="s">
         <v>350</v>
       </c>
@@ -4915,7 +4286,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
         <v>328</v>
       </c>
@@ -4923,7 +4294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
         <v>265</v>
       </c>
@@ -4931,7 +4302,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H57" t="s">
         <v>289</v>
       </c>
@@ -4939,7 +4310,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
         <v>290</v>
       </c>
@@ -4947,7 +4318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
         <v>532</v>
       </c>
@@ -4955,7 +4326,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H60" t="s">
         <v>291</v>
       </c>
@@ -4963,7 +4334,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
         <v>300</v>
       </c>
@@ -4971,7 +4342,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
         <v>309</v>
       </c>
@@ -4979,7 +4350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
         <v>334</v>
       </c>
@@ -4987,7 +4358,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>306</v>
       </c>
@@ -4995,7 +4366,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
         <v>307</v>
       </c>
@@ -5003,7 +4374,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
         <v>363</v>
       </c>
@@ -5011,7 +4382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
         <v>364</v>
       </c>
@@ -5019,7 +4390,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H68" t="s">
         <v>342</v>
       </c>
@@ -5027,7 +4398,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
         <v>310</v>
       </c>
@@ -5035,7 +4406,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H70" t="s">
         <v>266</v>
       </c>
@@ -5043,7 +4414,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
         <v>518</v>
       </c>
@@ -5051,7 +4422,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
         <v>311</v>
       </c>
@@ -5059,7 +4430,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
         <v>403</v>
       </c>
@@ -5067,7 +4438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
         <v>301</v>
       </c>
@@ -5075,7 +4446,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H75" t="s">
         <v>404</v>
       </c>
@@ -5083,7 +4454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
         <v>259</v>
       </c>
@@ -5091,7 +4462,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
         <v>503</v>
       </c>
@@ -5099,7 +4470,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
         <v>341</v>
       </c>
@@ -5107,7 +4478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
         <v>277</v>
       </c>
@@ -5115,7 +4486,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
         <v>283</v>
       </c>
@@ -5123,7 +4494,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H81" t="s">
         <v>288</v>
       </c>
@@ -5131,7 +4502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H82" t="s">
         <v>422</v>
       </c>
@@ -5139,7 +4510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
         <v>329</v>
       </c>
@@ -5147,7 +4518,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H84" t="s">
         <v>267</v>
       </c>
@@ -5155,7 +4526,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H85" t="s">
         <v>278</v>
       </c>
@@ -5163,7 +4534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H86" t="s">
         <v>284</v>
       </c>
@@ -5171,7 +4542,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H87" t="s">
         <v>273</v>
       </c>
@@ -5179,7 +4550,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H88" t="s">
         <v>520</v>
       </c>
@@ -5187,7 +4558,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H89" t="s">
         <v>268</v>
       </c>
@@ -5195,7 +4566,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H90" t="s">
         <v>285</v>
       </c>
@@ -5203,7 +4574,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H91" t="s">
         <v>269</v>
       </c>
@@ -5211,7 +4582,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H92" t="s">
         <v>270</v>
       </c>
@@ -5219,7 +4590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H93" t="s">
         <v>302</v>
       </c>
@@ -5227,7 +4598,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H94" t="s">
         <v>308</v>
       </c>
@@ -5235,7 +4606,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H95" t="s">
         <v>292</v>
       </c>
@@ -5243,7 +4614,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H96" t="s">
         <v>337</v>
       </c>
@@ -5251,7 +4622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H97" t="s">
         <v>274</v>
       </c>
@@ -5259,7 +4630,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H98" t="s">
         <v>275</v>
       </c>
@@ -5267,233 +4638,233 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z99" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z100" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z101" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z104" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z105" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z106" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z108" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z109" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z110" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z111" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z112" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z113" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z125" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z127" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z128" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z129" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z131" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z133" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z136" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="40.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="41.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="10" width="23.1640625" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="45.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
-    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="23.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="45.1640625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +4895,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
@@ -5545,7 +4916,7 @@
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
     </row>
-    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5562,7 +4933,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5607,7 +4978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>549</v>
       </c>
@@ -5632,7 +5003,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>551</v>
@@ -5659,7 +5030,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>552</v>
@@ -5686,7 +5057,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>559</v>
@@ -5715,7 +5086,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>560</v>
       </c>
@@ -5744,7 +5115,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>564</v>
@@ -5769,7 +5140,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -5792,7 +5163,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5817,7 +5188,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="43" t="s">
         <v>635</v>
@@ -5844,7 +5215,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="44" t="s">
         <v>566</v>
@@ -5869,7 +5240,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="45" t="s">
         <v>568</v>
@@ -5894,7 +5265,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="44"/>
       <c r="C16" s="13" t="s">
@@ -5919,7 +5290,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
@@ -5944,7 +5315,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="46" t="s">
         <v>581</v>
@@ -5971,7 +5342,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
@@ -5996,7 +5367,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
@@ -6021,7 +5392,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="41"/>
       <c r="C21" s="13" t="s">
@@ -6044,7 +5415,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="42" t="s">
         <v>582</v>
@@ -6071,7 +5442,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>583</v>
@@ -6098,7 +5469,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>594</v>
@@ -6125,7 +5496,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="47" t="s">
         <v>595</v>
@@ -6152,7 +5523,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="48"/>
       <c r="C26" s="13" t="s">
@@ -6177,7 +5548,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="49"/>
       <c r="C27" s="13" t="s">
@@ -6202,7 +5573,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5" t="s">
         <v>596</v>
@@ -6227,7 +5598,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>599</v>
       </c>
@@ -6256,7 +5627,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="29" t="s">
         <v>604</v>
@@ -6283,7 +5654,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
         <v>605</v>
@@ -6310,7 +5681,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13" t="s">
@@ -6335,7 +5706,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5" t="s">
         <v>638</v>
@@ -6364,7 +5735,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="30" t="s">
         <v>607</v>
@@ -6391,7 +5762,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="31"/>
       <c r="C35" s="13" t="s">
@@ -6416,7 +5787,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="32" t="s">
         <v>610</v>
@@ -6441,7 +5812,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="37" t="s">
         <v>632</v>
@@ -6470,7 +5841,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="35" t="s">
         <v>613</v>
@@ -6497,7 +5868,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="35" t="s">
         <v>614</v>
@@ -6526,7 +5897,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="35" t="s">
         <v>620</v>
@@ -6555,7 +5926,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="36" t="s">
         <v>625</v>
@@ -6582,7 +5953,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="36" t="s">
         <v>631</v>
@@ -6609,7 +5980,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="34" t="s">
         <v>637</v>
@@ -6638,7 +6009,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="33" t="s">
         <v>640</v>
@@ -6667,7 +6038,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="33"/>
       <c r="C45" s="13" t="s">
@@ -6692,7 +6063,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5" t="s">
         <v>646</v>
@@ -6721,7 +6092,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>650</v>
       </c>
@@ -6750,7 +6121,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13" t="s">
@@ -6775,7 +6146,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6792,7 +6163,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6809,7 +6180,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -6826,7 +6197,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -6843,7 +6214,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -6860,7 +6231,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -6877,7 +6248,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -6894,7 +6265,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -6911,7 +6282,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -6928,7 +6299,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -6945,7 +6316,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -6962,7 +6333,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -6979,7 +6350,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -6996,7 +6367,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -7013,7 +6384,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -7030,7 +6401,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -7047,7 +6418,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -7064,7 +6435,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -7081,7 +6452,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -7098,7 +6469,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -7115,7 +6486,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -7132,7 +6503,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -7149,7 +6520,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -7166,7 +6537,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -7183,7 +6554,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -7200,7 +6571,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -7217,7 +6588,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -7234,7 +6605,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -7251,7 +6622,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -7268,7 +6639,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -7285,7 +6656,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -7302,7 +6673,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -7319,7 +6690,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -7336,7 +6707,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -7353,7 +6724,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -7370,7 +6741,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -7387,7 +6758,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -7404,7 +6775,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -7421,7 +6792,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -7438,7 +6809,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -7455,7 +6826,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -7472,7 +6843,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -7489,7 +6860,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -7506,7 +6877,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -7523,7 +6894,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -7540,7 +6911,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -7557,7 +6928,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -7574,7 +6945,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -7591,7 +6962,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -7608,7 +6979,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -7625,7 +6996,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -7642,7 +7013,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -7659,7 +7030,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -7676,7 +7047,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -7693,7 +7064,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -7710,7 +7081,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -7727,7 +7098,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -7744,7 +7115,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -7761,7 +7132,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -7778,7 +7149,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -7795,7 +7166,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -7812,7 +7183,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -7829,7 +7200,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -7846,7 +7217,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -7863,7 +7234,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -7880,7 +7251,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -7897,7 +7268,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -7914,7 +7285,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -7931,7 +7302,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -7948,7 +7319,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -7965,7 +7336,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -7982,7 +7353,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -7999,7 +7370,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -8016,7 +7387,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -8033,7 +7404,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -8050,7 +7421,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -8067,7 +7438,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -8084,7 +7455,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -8101,7 +7472,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -8118,7 +7489,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -8135,7 +7506,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -8152,7 +7523,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -8169,7 +7540,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -8186,7 +7557,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -8203,7 +7574,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -8220,7 +7591,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -8237,7 +7608,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -8254,7 +7625,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -8271,7 +7642,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -8288,7 +7659,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -8305,7 +7676,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -8322,7 +7693,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -8339,7 +7710,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -8356,7 +7727,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -8373,7 +7744,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -8390,7 +7761,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -8407,7 +7778,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -8424,7 +7795,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -8441,7 +7812,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -8458,7 +7829,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -8475,7 +7846,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -8492,7 +7863,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -8509,7 +7880,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -8526,7 +7897,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -8543,7 +7914,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -8560,7 +7931,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -8577,7 +7948,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -8594,7 +7965,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -8611,7 +7982,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -8628,7 +7999,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -8645,7 +8016,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -8662,7 +8033,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -8679,7 +8050,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -8696,7 +8067,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -8713,7 +8084,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -8730,7 +8101,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -8747,7 +8118,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -8764,7 +8135,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -8781,7 +8152,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -8798,7 +8169,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -8815,7 +8186,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -8832,7 +8203,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -8849,7 +8220,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -8866,7 +8237,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -8883,7 +8254,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -8900,7 +8271,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -8917,7 +8288,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -8934,7 +8305,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -8951,7 +8322,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -8968,7 +8339,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -8985,7 +8356,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -9002,7 +8373,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -9019,7 +8390,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -9036,7 +8407,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -9053,7 +8424,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -9070,7 +8441,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -9087,7 +8458,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -9104,7 +8475,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -9121,7 +8492,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -9138,7 +8509,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -9155,7 +8526,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -9172,7 +8543,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -9189,7 +8560,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -9206,7 +8577,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -9223,7 +8594,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -9240,7 +8611,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -9257,7 +8628,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -9274,7 +8645,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -9291,7 +8662,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -9308,7 +8679,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -9325,7 +8696,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -9342,7 +8713,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -9359,7 +8730,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -9376,7 +8747,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -9393,7 +8764,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -9410,7 +8781,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -9427,7 +8798,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -9444,7 +8815,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -9461,7 +8832,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -9478,7 +8849,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -9495,7 +8866,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -9512,7 +8883,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -9529,7 +8900,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -9546,7 +8917,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -9563,7 +8934,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -9580,7 +8951,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -9597,7 +8968,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -9614,7 +8985,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -9631,7 +9002,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -9648,7 +9019,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -9665,7 +9036,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -9682,7 +9053,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -9699,7 +9070,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -9716,7 +9087,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -9733,7 +9104,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -9750,7 +9121,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -9767,7 +9138,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -9784,7 +9155,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -9801,7 +9172,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -9818,7 +9189,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -9835,7 +9206,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -9852,7 +9223,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -9869,7 +9240,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -9886,7 +9257,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -9903,7 +9274,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -9920,7 +9291,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -9937,7 +9308,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -9954,7 +9325,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -9971,7 +9342,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -9988,7 +9359,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -10005,7 +9376,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -10022,7 +9393,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -10039,7 +9410,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -10056,7 +9427,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -10073,7 +9444,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -10090,7 +9461,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -10107,7 +9478,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -10124,7 +9495,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -10141,7 +9512,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -10158,7 +9529,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -10175,7 +9546,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -10192,7 +9563,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -10209,7 +9580,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -10226,7 +9597,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -10243,7 +9614,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -10260,7 +9631,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -10277,7 +9648,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -10294,7 +9665,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -10311,7 +9682,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -10328,7 +9699,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -10345,7 +9716,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -10362,7 +9733,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -10379,7 +9750,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -10396,7 +9767,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -10413,7 +9784,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -10430,7 +9801,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -10447,7 +9818,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -10464,7 +9835,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -10481,7 +9852,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -10498,7 +9869,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -10515,7 +9886,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -10532,7 +9903,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -10549,7 +9920,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -10566,7 +9937,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -10583,7 +9954,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -10600,7 +9971,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -10617,7 +9988,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -10634,7 +10005,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -10651,7 +10022,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -10668,7 +10039,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -10685,7 +10056,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -10702,7 +10073,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -10719,7 +10090,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -10736,7 +10107,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -10753,7 +10124,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -10770,7 +10141,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -10787,7 +10158,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -10804,7 +10175,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -10821,7 +10192,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -10838,7 +10209,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -10855,7 +10226,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -10872,7 +10243,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -10889,7 +10260,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -10906,7 +10277,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -10923,7 +10294,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -10940,7 +10311,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -10957,7 +10328,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -10974,7 +10345,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -10991,7 +10362,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -11008,7 +10379,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -11025,7 +10396,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -11042,7 +10413,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -11059,7 +10430,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -11076,7 +10447,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row customHeight="1" ht="23" r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -11094,7 +10465,7 @@
       <c r="O302" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -11102,36 +10473,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N303:N1048576 N3:N102">
-    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:N302">
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2" disablePrompts="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C302" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C302" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D302" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D302" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/examples/craigslist/artifact/script/SearchCraigslist.xlsx
+++ b/examples/craigslist/artifact/script/SearchCraigslist.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/tutorials/examples/craigslist/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893AA383-9B19-7043-8ACF-B8719AA84CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{893AA383-9B19-7043-8ACF-B8719AA84CAE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-14160" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="14160" windowWidth="25600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14160" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -48,9 +48,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="668">
   <si>
     <t>description</t>
   </si>
@@ -2064,12 +2064,40 @@
   <si>
     <t>${logo.text}</t>
   </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2176,8 +2204,109 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2208,8 +2337,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2284,229 +2566,603 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="74">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="2" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="5" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2570,7 +3226,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2595,10 +3251,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2633,7 +3289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2668,7 +3324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2762,21 +3418,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2793,7 +3449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2845,26 +3501,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2959,7 +3615,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -3054,7 +3710,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>448</v>
       </c>
@@ -3140,7 +3796,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -3223,7 +3879,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>540</v>
       </c>
@@ -3285,7 +3941,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>666</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -3297,7 +3953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3356,7 +4012,7 @@
         <v>438</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -3368,7 +4024,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3418,7 +4074,7 @@
         <v>439</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -3430,7 +4086,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3474,7 +4130,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -3486,7 +4142,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3526,6 +4182,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -3533,7 +4192,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3567,6 +4226,9 @@
       <c r="Z10" t="s">
         <v>254</v>
       </c>
+      <c r="AB10" t="s">
+        <v>667</v>
+      </c>
       <c r="AC10" t="s">
         <v>188</v>
       </c>
@@ -3574,7 +4236,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3612,7 +4274,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3650,7 +4312,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3685,7 +4347,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3720,7 +4382,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>500</v>
       </c>
@@ -3743,7 +4405,7 @@
         <v>249</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>659</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -3752,7 +4414,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -3775,7 +4437,7 @@
         <v>250</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -3784,7 +4446,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3801,7 +4463,7 @@
         <v>39</v>
       </c>
       <c r="Z17" t="s">
-        <v>486</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>460</v>
@@ -3810,7 +4472,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3827,13 +4489,13 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>486</v>
       </c>
       <c r="AE18" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -3847,13 +4509,13 @@
         <v>456</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3867,13 +4529,13 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>389</v>
       </c>
@@ -3887,13 +4549,13 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>405</v>
       </c>
@@ -3907,13 +4569,13 @@
         <v>546</v>
       </c>
       <c r="Z22" t="s">
-        <v>487</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -3927,13 +4589,13 @@
         <v>463</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>487</v>
       </c>
       <c r="AE23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>351</v>
       </c>
@@ -3947,13 +4609,13 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>534</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>390</v>
       </c>
@@ -3967,13 +4629,13 @@
         <v>385</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>534</v>
       </c>
       <c r="AE25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -3987,13 +4649,13 @@
         <v>517</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -4007,13 +4669,13 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4027,10 +4689,10 @@
         <v>427</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4044,10 +4706,10 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>407</v>
       </c>
@@ -4061,10 +4723,10 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>225</v>
       </c>
@@ -4075,10 +4737,10 @@
         <v>214</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="F32" t="s">
         <v>64</v>
       </c>
@@ -4086,10 +4748,10 @@
         <v>272</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="F33" t="s">
         <v>65</v>
       </c>
@@ -4097,10 +4759,10 @@
         <v>282</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="F34" t="s">
         <v>66</v>
       </c>
@@ -4108,10 +4770,10 @@
         <v>502</v>
       </c>
       <c r="Z34" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="F35" t="s">
         <v>67</v>
       </c>
@@ -4119,10 +4781,10 @@
         <v>257</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="F36" t="s">
         <v>68</v>
       </c>
@@ -4130,10 +4792,10 @@
         <v>327</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="F37" t="s">
         <v>69</v>
       </c>
@@ -4141,10 +4803,10 @@
         <v>304</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="F38" t="s">
         <v>70</v>
       </c>
@@ -4152,10 +4814,10 @@
         <v>258</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>71</v>
       </c>
@@ -4163,708 +4825,743 @@
         <v>305</v>
       </c>
       <c r="Z39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="H40" t="s">
         <v>264</v>
       </c>
       <c r="Z40" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="H41" t="s">
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="H42" t="s">
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="H43" t="s">
         <v>531</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="H44" t="s">
         <v>286</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="H52" t="s">
         <v>362</v>
       </c>
       <c r="Z52" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="H54" t="s">
         <v>350</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
       <c r="Z56" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
       <c r="Z57" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="H59" t="s">
         <v>532</v>
       </c>
       <c r="Z59" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
       <c r="Z60" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="H66" t="s">
         <v>363</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="H67" t="s">
         <v>364</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
       <c r="Z68" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
       <c r="Z69" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="H71" t="s">
         <v>518</v>
       </c>
       <c r="Z71" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
       <c r="Z72" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="H73" t="s">
         <v>403</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="H75" t="s">
         <v>404</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="H77" t="s">
         <v>503</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
       <c r="Z79" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
       <c r="Z80" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>422</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
       <c r="Z84" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>520</v>
       </c>
       <c r="Z88" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
       <c r="Z98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Z100" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z108" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z109" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z110" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z111" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z112" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z113" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z114" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z115" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z116" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Z120" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z117" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z118" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Z123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z119" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z120" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z121" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z122" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z123" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z124" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Z130" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z125" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z126" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z127" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z128" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z129" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z130" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z131" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z132" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z133" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z134" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z135" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z136" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z137" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="23.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45.1640625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="40.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="41.0" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="10" width="23.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="45.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -4895,7 +5592,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
@@ -4916,7 +5613,7 @@
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4933,7 +5630,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -4978,7 +5675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>549</v>
       </c>
@@ -5003,7 +5700,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>551</v>
@@ -5030,7 +5727,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>552</v>
@@ -5057,7 +5754,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>559</v>
@@ -5086,7 +5783,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>560</v>
       </c>
@@ -5115,7 +5812,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>564</v>
@@ -5140,7 +5837,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -5163,7 +5860,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5188,7 +5885,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="43" t="s">
         <v>635</v>
@@ -5215,7 +5912,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="44" t="s">
         <v>566</v>
@@ -5240,7 +5937,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="45" t="s">
         <v>568</v>
@@ -5265,7 +5962,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="44"/>
       <c r="C16" s="13" t="s">
@@ -5290,7 +5987,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="44"/>
       <c r="C17" s="13" t="s">
@@ -5315,7 +6012,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="46" t="s">
         <v>581</v>
@@ -5342,7 +6039,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
@@ -5367,7 +6064,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
@@ -5392,7 +6089,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="41"/>
       <c r="C21" s="13" t="s">
@@ -5415,7 +6112,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="42" t="s">
         <v>582</v>
@@ -5442,7 +6139,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>583</v>
@@ -5469,7 +6166,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>594</v>
@@ -5496,7 +6193,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="47" t="s">
         <v>595</v>
@@ -5523,7 +6220,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="48"/>
       <c r="C26" s="13" t="s">
@@ -5548,7 +6245,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="49"/>
       <c r="C27" s="13" t="s">
@@ -5573,7 +6270,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5" t="s">
         <v>596</v>
@@ -5598,7 +6295,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>599</v>
       </c>
@@ -5627,7 +6324,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="29" t="s">
         <v>604</v>
@@ -5654,7 +6351,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
         <v>605</v>
@@ -5681,7 +6378,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13" t="s">
@@ -5706,7 +6403,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5" t="s">
         <v>638</v>
@@ -5735,7 +6432,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="30" t="s">
         <v>607</v>
@@ -5762,7 +6459,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="31"/>
       <c r="C35" s="13" t="s">
@@ -5787,7 +6484,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="32" t="s">
         <v>610</v>
@@ -5812,7 +6509,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="37" t="s">
         <v>632</v>
@@ -5841,7 +6538,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="35" t="s">
         <v>613</v>
@@ -5868,7 +6565,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="35" t="s">
         <v>614</v>
@@ -5897,7 +6594,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="35" t="s">
         <v>620</v>
@@ -5926,7 +6623,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="36" t="s">
         <v>625</v>
@@ -5953,7 +6650,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="36" t="s">
         <v>631</v>
@@ -5980,7 +6677,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="34" t="s">
         <v>637</v>
@@ -6009,7 +6706,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="33" t="s">
         <v>640</v>
@@ -6038,7 +6735,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="33"/>
       <c r="C45" s="13" t="s">
@@ -6063,7 +6760,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5" t="s">
         <v>646</v>
@@ -6092,7 +6789,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>650</v>
       </c>
@@ -6121,7 +6818,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13" t="s">
@@ -6146,7 +6843,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6163,7 +6860,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6180,7 +6877,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -6197,7 +6894,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -6214,7 +6911,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -6231,7 +6928,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -6248,7 +6945,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -6265,7 +6962,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -6282,7 +6979,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -6299,7 +6996,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -6316,7 +7013,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -6333,7 +7030,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -6350,7 +7047,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -6367,7 +7064,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -6384,7 +7081,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -6401,7 +7098,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -6418,7 +7115,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -6435,7 +7132,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -6452,7 +7149,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -6469,7 +7166,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -6486,7 +7183,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -6503,7 +7200,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -6520,7 +7217,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -6537,7 +7234,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -6554,7 +7251,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -6571,7 +7268,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -6588,7 +7285,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -6605,7 +7302,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -6622,7 +7319,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6639,7 +7336,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6656,7 +7353,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6673,7 +7370,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6690,7 +7387,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6707,7 +7404,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6724,7 +7421,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6741,7 +7438,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6758,7 +7455,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6775,7 +7472,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6792,7 +7489,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6809,7 +7506,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6826,7 +7523,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6843,7 +7540,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6860,7 +7557,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6877,7 +7574,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6894,7 +7591,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6911,7 +7608,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6928,7 +7625,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6945,7 +7642,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6962,7 +7659,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6979,7 +7676,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6996,7 +7693,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -7013,7 +7710,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -7030,7 +7727,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -7047,7 +7744,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -7064,7 +7761,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -7081,7 +7778,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -7098,7 +7795,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -7115,7 +7812,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -7132,7 +7829,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -7149,7 +7846,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -7166,7 +7863,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -7183,7 +7880,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -7200,7 +7897,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -7217,7 +7914,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -7234,7 +7931,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -7251,7 +7948,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -7268,7 +7965,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -7285,7 +7982,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -7302,7 +7999,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -7319,7 +8016,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -7336,7 +8033,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -7353,7 +8050,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -7370,7 +8067,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -7387,7 +8084,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -7404,7 +8101,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -7421,7 +8118,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -7438,7 +8135,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -7455,7 +8152,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -7472,7 +8169,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -7489,7 +8186,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -7506,7 +8203,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -7523,7 +8220,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -7540,7 +8237,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -7557,7 +8254,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -7574,7 +8271,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -7591,7 +8288,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -7608,7 +8305,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -7625,7 +8322,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -7642,7 +8339,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -7659,7 +8356,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -7676,7 +8373,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -7693,7 +8390,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7710,7 +8407,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7727,7 +8424,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7744,7 +8441,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7761,7 +8458,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7778,7 +8475,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7795,7 +8492,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7812,7 +8509,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7829,7 +8526,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7846,7 +8543,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7863,7 +8560,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7880,7 +8577,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7897,7 +8594,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7914,7 +8611,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7931,7 +8628,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7948,7 +8645,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7965,7 +8662,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7982,7 +8679,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7999,7 +8696,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -8016,7 +8713,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -8033,7 +8730,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -8050,7 +8747,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -8067,7 +8764,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -8084,7 +8781,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -8101,7 +8798,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -8118,7 +8815,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -8135,7 +8832,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -8152,7 +8849,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -8169,7 +8866,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -8186,7 +8883,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -8203,7 +8900,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -8220,7 +8917,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -8237,7 +8934,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -8254,7 +8951,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -8271,7 +8968,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -8288,7 +8985,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -8305,7 +9002,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -8322,7 +9019,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -8339,7 +9036,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -8356,7 +9053,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -8373,7 +9070,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -8390,7 +9087,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -8407,7 +9104,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -8424,7 +9121,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -8441,7 +9138,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -8458,7 +9155,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -8475,7 +9172,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -8492,7 +9189,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -8509,7 +9206,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -8526,7 +9223,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -8543,7 +9240,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -8560,7 +9257,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -8577,7 +9274,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -8594,7 +9291,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -8611,7 +9308,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -8628,7 +9325,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -8645,7 +9342,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -8662,7 +9359,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -8679,7 +9376,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -8696,7 +9393,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8713,7 +9410,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8730,7 +9427,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8747,7 +9444,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8764,7 +9461,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8781,7 +9478,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8798,7 +9495,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8815,7 +9512,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8832,7 +9529,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8849,7 +9546,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8866,7 +9563,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8883,7 +9580,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8900,7 +9597,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8917,7 +9614,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8934,7 +9631,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8951,7 +9648,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8968,7 +9665,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8985,7 +9682,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -9002,7 +9699,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -9019,7 +9716,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -9036,7 +9733,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -9053,7 +9750,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -9070,7 +9767,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -9087,7 +9784,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -9104,7 +9801,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -9121,7 +9818,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -9138,7 +9835,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -9155,7 +9852,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -9172,7 +9869,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -9189,7 +9886,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -9206,7 +9903,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -9223,7 +9920,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -9240,7 +9937,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -9257,7 +9954,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -9274,7 +9971,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -9291,7 +9988,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -9308,7 +10005,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -9325,7 +10022,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -9342,7 +10039,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -9359,7 +10056,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -9376,7 +10073,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -9393,7 +10090,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -9410,7 +10107,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -9427,7 +10124,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -9444,7 +10141,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -9461,7 +10158,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -9478,7 +10175,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -9495,7 +10192,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -9512,7 +10209,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -9529,7 +10226,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -9546,7 +10243,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -9563,7 +10260,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -9580,7 +10277,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -9597,7 +10294,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -9614,7 +10311,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -9631,7 +10328,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -9648,7 +10345,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -9665,7 +10362,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -9682,7 +10379,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -9699,7 +10396,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9716,7 +10413,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9733,7 +10430,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9750,7 +10447,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9767,7 +10464,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9784,7 +10481,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9801,7 +10498,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9818,7 +10515,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9835,7 +10532,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9852,7 +10549,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9869,7 +10566,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9886,7 +10583,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9903,7 +10600,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9920,7 +10617,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9937,7 +10634,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9954,7 +10651,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9971,7 +10668,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9988,7 +10685,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -10005,7 +10702,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -10022,7 +10719,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -10039,7 +10736,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -10056,7 +10753,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -10073,7 +10770,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -10090,7 +10787,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -10107,7 +10804,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -10124,7 +10821,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -10141,7 +10838,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -10158,7 +10855,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -10175,7 +10872,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -10192,7 +10889,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -10209,7 +10906,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -10226,7 +10923,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -10243,7 +10940,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -10260,7 +10957,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -10277,7 +10974,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -10294,7 +10991,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -10311,7 +11008,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -10328,7 +11025,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -10345,7 +11042,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -10362,7 +11059,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -10379,7 +11076,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -10396,7 +11093,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -10413,7 +11110,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -10430,7 +11127,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -10447,7 +11144,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -10465,7 +11162,7 @@
       <c r="O302" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -10473,36 +11170,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N303:N1048576 N3:N102">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:N302">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C302" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C302" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D302" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D302" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>